--- a/Wycena.xlsx
+++ b/Wycena.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Projekt EPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Właściciel\Desktop\Unity.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Task</t>
   </si>
@@ -111,10 +111,46 @@
     <t>Hałasujące walające się śmieci</t>
   </si>
   <si>
-    <t>Teksturowanie</t>
+    <t>Urzadzenie pomieszczen mapy</t>
   </si>
   <si>
-    <t>Urzadzenie pomieszczen mapy</t>
+    <t>Projekt mapy</t>
+  </si>
+  <si>
+    <t>Mateusz, Szymon</t>
+  </si>
+  <si>
+    <t>Teksturowanie Pomieszczeń</t>
+  </si>
+  <si>
+    <t>projektowanie pomieszczeń</t>
+  </si>
+  <si>
+    <t>Oświetlenie</t>
+  </si>
+  <si>
+    <t>Wygląd zewnętrzny budynku</t>
+  </si>
+  <si>
+    <t>Okna</t>
+  </si>
+  <si>
+    <t>Drzwi</t>
+  </si>
+  <si>
+    <t>Winda</t>
+  </si>
+  <si>
+    <t>Mechanizm otwierania drzwi</t>
+  </si>
+  <si>
+    <t>Rozmieszczenie przedmiotów</t>
+  </si>
+  <si>
+    <t>Wygląd przedmiotów</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>18</v>
@@ -2201,19 +2237,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I41" si="0">IF(ISNUMBER($H2),$H2/8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H2), $B2=100%),$H2-$F2,"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="9" t="str">
-        <f t="shared" ref="K2:K33" si="1">IF(ISNUMBER($J2),$J2/8,"")</f>
-        <v/>
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J33" si="1">IF(AND(ISNUMBER($H2), $B2=100%),$H2-$F2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K33" si="2">IF(ISNUMBER($J2),$J2/8,"")</f>
+        <v>0</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2244,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>18</v>
@@ -2253,24 +2289,26 @@
         <v>22</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G52" si="2">IF(ISNUMBER($F3),$F3/4,"")</f>
-        <v/>
+      <c r="F3" s="20">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G52" si="3">IF(ISNUMBER($F3),$F3/4,"")</f>
+        <v>0.75</v>
       </c>
       <c r="H3" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J3" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H3), $B3=100%),$H3-$F3,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K3" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L3" s="4"/>
@@ -2306,22 +2344,22 @@
         <v>2</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="H4" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H4), $B4=100%),$H4-$F4,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L4" s="4"/>
@@ -2343,10 +2381,12 @@
         <v>23</v>
       </c>
       <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F5" s="20">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="H5" s="21">
         <v>0</v>
@@ -2356,11 +2396,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H5), $B5=100%),$H5-$F5,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L5" s="4"/>
@@ -2382,10 +2422,12 @@
         <v>23</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F6" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -2395,11 +2437,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H6), $B6=100%),$H6-$F6,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L6" s="4"/>
@@ -2421,10 +2463,12 @@
         <v>23</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F7" s="20">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="H7" s="21">
         <v>0</v>
@@ -2434,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H7), $B7=100%),$H7-$F7,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K7" s="9" t="str">
@@ -2451,7 +2495,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>18</v>
@@ -2464,23 +2508,23 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="H8" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H8), $B8=100%),$H8-$F8,"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="9" t="str">
-        <f t="shared" ref="K8:K11" si="3">IF(ISNUMBER($J8),$J8/8,"")</f>
-        <v/>
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" ref="K8:K11" si="4">IF(ISNUMBER($J8),$J8/8,"")</f>
+        <v>0.125</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2492,17 +2536,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="29">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="H9" s="21">
         <v>0</v>
@@ -2512,11 +2558,11 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H9), $B9=100%),$H9-$F9,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K9" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L9" s="4"/>
@@ -2531,15 +2577,19 @@
       <c r="B10" s="29">
         <v>0</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F10" s="20">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H10" s="21">
         <v>0</v>
@@ -2549,11 +2599,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H10), $B10=100%),$H10-$F10,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L10" s="4"/>
@@ -2568,13 +2618,17 @@
       <c r="B11" s="29">
         <v>0</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F11" s="20">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H11" s="21">
         <v>0</v>
@@ -2584,11 +2638,11 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H11), $B11=100%),$H11-$F11,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K11" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L11" s="4"/>
@@ -2603,13 +2657,19 @@
       <c r="B12" s="29">
         <v>0</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F12" s="20">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="H12" s="21">
         <v>0</v>
@@ -2619,11 +2679,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H12), $B12=100%),$H12-$F12,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" s="4"/>
@@ -2640,13 +2700,17 @@
       <c r="B13" s="29">
         <v>0</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F13" s="20">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H13" s="21">
         <v>0</v>
@@ -2656,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H13), $B13=100%),$H13-$F13,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K13" s="9"/>
@@ -2672,13 +2736,17 @@
       <c r="B14" s="29">
         <v>0</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="18"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="9" t="str">
@@ -2686,7 +2754,7 @@
         <v/>
       </c>
       <c r="J14" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H14), $B14=100%),$H14-$F14,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K14" s="9"/>
@@ -2697,7 +2765,7 @@
     </row>
     <row r="15" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="29">
         <v>0</v>
@@ -2705,12 +2773,16 @@
       <c r="C15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F15" s="20">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="9" t="str">
@@ -2718,11 +2790,11 @@
         <v/>
       </c>
       <c r="J15" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H15), $B15=100%),$H15-$F15,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L15" s="4"/>
@@ -2737,7 +2809,7 @@
     </row>
     <row r="16" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="29">
         <v>0</v>
@@ -2745,12 +2817,16 @@
       <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F16" s="20">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="9" t="str">
@@ -2758,11 +2834,11 @@
         <v/>
       </c>
       <c r="J16" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H16), $B16=100%),$H16-$F16,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L16" s="4"/>
@@ -2774,25 +2850,35 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="29">
-        <v>0</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="9" t="str">
+      <c r="F17" s="20">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="21">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J17" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H17), $B17=100%),$H17-$F17,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K17" s="9"/>
@@ -2802,17 +2888,25 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="B18" s="29">
         <v>0</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F18" s="20">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="9" t="str">
@@ -2820,7 +2914,7 @@
         <v/>
       </c>
       <c r="J18" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H18), $B18=100%),$H18-$F18,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K18" s="9"/>
@@ -2830,17 +2924,25 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="29">
         <v>0</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F19" s="20">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="9" t="str">
@@ -2848,7 +2950,7 @@
         <v/>
       </c>
       <c r="J19" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H19), $B19=100%),$H19-$F19,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K19" s="9"/>
@@ -2858,17 +2960,25 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="B20" s="29">
         <v>0</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F20" s="20">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="9" t="str">
@@ -2876,7 +2986,7 @@
         <v/>
       </c>
       <c r="J20" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H20), $B20=100%),$H20-$F20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K20" s="9"/>
@@ -2886,17 +2996,23 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="B21" s="29">
         <v>0</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F21" s="20">
+        <v>4</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="9" t="str">
@@ -2904,7 +3020,7 @@
         <v/>
       </c>
       <c r="J21" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H21), $B21=100%),$H21-$F21,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K21" s="9"/>
@@ -2914,17 +3030,23 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" s="29">
         <v>0</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F22" s="20">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="9" t="str">
@@ -2932,11 +3054,11 @@
         <v/>
       </c>
       <c r="J22" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H22), $B22=100%),$H22-$F22,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L22" s="4"/>
@@ -2945,17 +3067,23 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="29">
         <v>0</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="9" t="str">
@@ -2963,11 +3091,11 @@
         <v/>
       </c>
       <c r="J23" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H23), $B23=100%),$H23-$F23,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L23" s="4"/>
@@ -2976,17 +3104,25 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="B24" s="29">
         <v>0</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F24" s="20">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="9" t="str">
@@ -2994,11 +3130,11 @@
         <v/>
       </c>
       <c r="J24" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H24), $B24=100%),$H24-$F24,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L24" s="4"/>
@@ -3007,17 +3143,25 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="29">
         <v>0</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F25" s="20">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="9" t="str">
@@ -3025,11 +3169,11 @@
         <v/>
       </c>
       <c r="J25" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H25), $B25=100%),$H25-$F25,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K25" s="9" t="str">
-        <f t="shared" ref="K25:K27" si="4">IF(ISNUMBER($J25),$J25/8,"")</f>
+        <f t="shared" ref="K25:K27" si="5">IF(ISNUMBER($J25),$J25/8,"")</f>
         <v/>
       </c>
       <c r="L25" s="4"/>
@@ -3038,17 +3182,25 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="29">
         <v>0</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F26" s="20">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="9" t="str">
@@ -3056,11 +3208,11 @@
         <v/>
       </c>
       <c r="J26" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H26), $B26=100%),$H26-$F26,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L26" s="4"/>
@@ -3078,7 +3230,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H27" s="21"/>
@@ -3087,11 +3239,11 @@
         <v/>
       </c>
       <c r="J27" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H27), $B27=100%),$H27-$F27,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L27" s="4"/>
@@ -3109,7 +3261,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H28" s="21"/>
@@ -3118,11 +3270,11 @@
         <v/>
       </c>
       <c r="J28" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H28), $B28=100%),$H28-$F28,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L28" s="4"/>
@@ -3140,7 +3292,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H29" s="21"/>
@@ -3149,11 +3301,11 @@
         <v/>
       </c>
       <c r="J29" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H29), $B29=100%),$H29-$F29,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L29" s="4"/>
@@ -3171,7 +3323,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
       <c r="G30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H30" s="21"/>
@@ -3180,11 +3332,11 @@
         <v/>
       </c>
       <c r="J30" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H30), $B30=100%),$H30-$F30,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L30" s="4"/>
@@ -3202,7 +3354,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
       <c r="G31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H31" s="21"/>
@@ -3211,11 +3363,11 @@
         <v/>
       </c>
       <c r="J31" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H31), $B31=100%),$H31-$F31,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K31" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L31" s="4"/>
@@ -3233,7 +3385,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H32" s="14"/>
@@ -3242,11 +3394,11 @@
         <v/>
       </c>
       <c r="J32" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H32), $B32=100%),$H32-$F32,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L32" s="4"/>
@@ -3264,7 +3416,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="20"/>
       <c r="G33" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H33" s="21"/>
@@ -3273,11 +3425,11 @@
         <v/>
       </c>
       <c r="J33" s="8" t="str">
-        <f>IF(AND(ISNUMBER($H33), $B33=100%),$H33-$F33,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L33" s="4"/>
@@ -3295,7 +3447,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="20"/>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H34" s="21"/>
@@ -3304,11 +3456,11 @@
         <v/>
       </c>
       <c r="J34" s="8" t="str">
-        <f t="shared" ref="J34:J52" si="5">IF(AND(ISNUMBER($H34), $B34=100%),$H34-$F34,"")</f>
+        <f t="shared" ref="J34:J52" si="6">IF(AND(ISNUMBER($H34), $B34=100%),$H34-$F34,"")</f>
         <v/>
       </c>
       <c r="K34" s="9" t="str">
-        <f t="shared" ref="K34:K44" si="6">IF(ISNUMBER($J34),$J34/8,"")</f>
+        <f t="shared" ref="K34:K44" si="7">IF(ISNUMBER($J34),$J34/8,"")</f>
         <v/>
       </c>
       <c r="L34" s="4"/>
@@ -3326,7 +3478,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="20"/>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H35" s="21"/>
@@ -3335,11 +3487,11 @@
         <v/>
       </c>
       <c r="J35" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K35" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L35" s="4"/>
@@ -3357,7 +3509,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="20"/>
       <c r="G36" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H36" s="21"/>
@@ -3366,11 +3518,11 @@
         <v/>
       </c>
       <c r="J36" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K36" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L36" s="4"/>
@@ -3386,10 +3538,13 @@
       <c r="C37" s="29"/>
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F37" s="20">
+        <f>SUM(F2:F26)</f>
+        <v>255</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="3"/>
+        <v>63.75</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="9" t="str">
@@ -3397,11 +3552,11 @@
         <v/>
       </c>
       <c r="J37" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K37" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L37" s="4"/>
@@ -3419,7 +3574,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="20"/>
       <c r="G38" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H38" s="21"/>
@@ -3428,11 +3583,11 @@
         <v/>
       </c>
       <c r="J38" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K38" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L38" s="4"/>
@@ -3450,7 +3605,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="20"/>
       <c r="G39" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H39" s="21"/>
@@ -3459,11 +3614,11 @@
         <v/>
       </c>
       <c r="J39" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K39" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L39" s="4"/>
@@ -3481,7 +3636,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="20"/>
       <c r="G40" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H40" s="21"/>
@@ -3490,11 +3645,11 @@
         <v/>
       </c>
       <c r="J40" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K40" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L40" s="4"/>
@@ -3512,7 +3667,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="20"/>
       <c r="G41" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H41" s="21"/>
@@ -3521,11 +3676,11 @@
         <v/>
       </c>
       <c r="J41" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K41" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L41" s="4"/>
@@ -3543,20 +3698,20 @@
       <c r="E42" s="12"/>
       <c r="F42" s="20"/>
       <c r="G42" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="9" t="str">
-        <f t="shared" ref="I42:I52" si="7">IF(ISNUMBER($H42),$H42/8,"")</f>
+        <f t="shared" ref="I42:I52" si="8">IF(ISNUMBER($H42),$H42/8,"")</f>
         <v/>
       </c>
       <c r="J42" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K42" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L42" s="4"/>
@@ -3574,20 +3729,20 @@
       <c r="E43" s="12"/>
       <c r="F43" s="20"/>
       <c r="G43" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K43" s="9" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J43" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K43" s="9" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L43" s="4"/>
@@ -3605,20 +3760,20 @@
       <c r="E44" s="12"/>
       <c r="F44" s="20"/>
       <c r="G44" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K44" s="9" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J44" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K44" s="9" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L44" s="4"/>
@@ -3636,16 +3791,16 @@
       <c r="E45" s="12"/>
       <c r="F45" s="20"/>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J45" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K45" s="9"/>
@@ -3664,16 +3819,16 @@
       <c r="E46" s="12"/>
       <c r="F46" s="20"/>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J46" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K46" s="9"/>
@@ -3692,16 +3847,16 @@
       <c r="E47" s="12"/>
       <c r="F47" s="20"/>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J47" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K47" s="9"/>
@@ -3720,16 +3875,16 @@
       <c r="E48" s="12"/>
       <c r="F48" s="20"/>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J48" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K48" s="9"/>
@@ -3748,16 +3903,16 @@
       <c r="E49" s="12"/>
       <c r="F49" s="20"/>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J49" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K49" s="9"/>
@@ -3776,20 +3931,20 @@
       <c r="E50" s="12"/>
       <c r="F50" s="20"/>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J50" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K50" s="9" t="str">
-        <f t="shared" ref="K50:K52" si="8">IF(ISNUMBER($J50),$J50/8,"")</f>
+        <f t="shared" ref="K50:K52" si="9">IF(ISNUMBER($J50),$J50/8,"")</f>
         <v/>
       </c>
       <c r="L50" s="4"/>
@@ -3807,20 +3962,20 @@
       <c r="E51" s="12"/>
       <c r="F51" s="20"/>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J51" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K51" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L51" s="4"/>
@@ -3836,20 +3991,20 @@
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H52" s="27"/>
       <c r="I52" s="28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J52" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K52" s="28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L52" s="4"/>
@@ -3864,34 +4019,34 @@
       </c>
       <c r="B53" s="16">
         <f>AVERAGE(B2:B51)</f>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15">
         <f>SUM(F2:F52)</f>
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="G53" s="15">
         <f>SUM(G2:G52)</f>
-        <v>1.75</v>
+        <v>127.5</v>
       </c>
       <c r="H53" s="15">
         <f>SUM(H2:H51)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I53" s="15">
         <f>SUM(I2:I51)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" s="15">
         <f>SUM(J2:J51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="15">
         <f>SUM(K2:K51)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/Wycena.xlsx
+++ b/Wycena.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Właściciel\Desktop\Unity.git\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Unity Projects\SVN-Unity\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2138,7 +2138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,15 +2240,15 @@
         <v>4</v>
       </c>
       <c r="I2" s="9">
-        <f t="shared" ref="I2:I41" si="0">IF(ISNUMBER($H2),$H2/8,"")</f>
-        <v>0.5</v>
+        <f>IF(ISNUMBER($H2),$H2/4,"")</f>
+        <v>1</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J33" si="1">IF(AND(ISNUMBER($H2), $B2=100%),$H2-$F2,"")</f>
+        <f t="shared" ref="J2:J33" si="0">IF(AND(ISNUMBER($H2), $B2=100%),$H2-$F2,"")</f>
         <v>0</v>
       </c>
       <c r="K2" s="9">
-        <f t="shared" ref="K2:K33" si="2">IF(ISNUMBER($J2),$J2/8,"")</f>
+        <f t="shared" ref="K2:K33" si="1">IF(ISNUMBER($J2),$J2/8,"")</f>
         <v>0</v>
       </c>
       <c r="L2" s="4"/>
@@ -2293,22 +2293,22 @@
         <v>3</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G52" si="3">IF(ISNUMBER($F3),$F3/4,"")</f>
+        <f t="shared" ref="G3:G52" si="2">IF(ISNUMBER($F3),$F3/4,"")</f>
         <v>0.75</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
       </c>
       <c r="I3" s="9">
+        <f t="shared" ref="I3:I52" si="3">IF(ISNUMBER($H3),$H3/4,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="J3" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K3" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L3" s="4"/>
@@ -2344,22 +2344,22 @@
         <v>2</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="H4" s="21">
         <v>1</v>
       </c>
       <c r="I4" s="9">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="J4" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K4" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L4" s="4"/>
@@ -2385,22 +2385,22 @@
         <v>10</v>
       </c>
       <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L5" s="4"/>
@@ -2426,22 +2426,22 @@
         <v>10</v>
       </c>
       <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K6" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L6" s="4"/>
@@ -2467,18 +2467,18 @@
         <v>10</v>
       </c>
       <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K7" s="9" t="str">
@@ -2508,18 +2508,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="H8" s="21">
         <v>2</v>
       </c>
       <c r="I8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K8" s="9">
@@ -2547,18 +2547,18 @@
         <v>2</v>
       </c>
       <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K9" s="9" t="str">
@@ -2588,18 +2588,18 @@
         <v>8</v>
       </c>
       <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K10" s="9" t="str">
@@ -2627,18 +2627,18 @@
         <v>12</v>
       </c>
       <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K11" s="9" t="str">
@@ -2668,22 +2668,22 @@
         <v>3</v>
       </c>
       <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" s="4"/>
@@ -2709,18 +2709,18 @@
         <v>4</v>
       </c>
       <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K13" s="9"/>
@@ -2745,16 +2745,16 @@
         <v>4</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K14" s="9"/>
@@ -2781,20 +2781,20 @@
         <v>60</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="K15" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L15" s="4"/>
@@ -2825,20 +2825,20 @@
         <v>30</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="K16" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L16" s="4"/>
@@ -2867,18 +2867,18 @@
         <v>6</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="H17" s="21">
         <v>8</v>
       </c>
       <c r="I17" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K17" s="9"/>
@@ -2905,16 +2905,16 @@
         <v>20</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K18" s="9"/>
@@ -2941,16 +2941,16 @@
         <v>30</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K19" s="9"/>
@@ -2977,16 +2977,16 @@
         <v>10</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K20" s="9"/>
@@ -3011,16 +3011,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K21" s="9"/>
@@ -3045,20 +3045,20 @@
         <v>4</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="K22" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L22" s="4"/>
@@ -3082,20 +3082,20 @@
         <v>2</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="K23" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L23" s="4"/>
@@ -3121,20 +3121,20 @@
         <v>4</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="K24" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K24" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L24" s="4"/>
@@ -3160,16 +3160,16 @@
         <v>4</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K25" s="9" t="str">
@@ -3199,16 +3199,16 @@
         <v>8</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K26" s="9" t="str">
@@ -3230,16 +3230,16 @@
       <c r="E27" s="12"/>
       <c r="F27" s="20"/>
       <c r="G27" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K27" s="9" t="str">
@@ -3261,20 +3261,20 @@
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="K28" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K28" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L28" s="4"/>
@@ -3292,20 +3292,20 @@
       <c r="E29" s="19"/>
       <c r="F29" s="20"/>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="K29" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K29" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L29" s="4"/>
@@ -3323,20 +3323,20 @@
       <c r="E30" s="19"/>
       <c r="F30" s="20"/>
       <c r="G30" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="K30" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L30" s="4"/>
@@ -3354,20 +3354,20 @@
       <c r="E31" s="19"/>
       <c r="F31" s="20"/>
       <c r="G31" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="8" t="str">
+      <c r="K31" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L31" s="4"/>
@@ -3383,22 +3383,22 @@
       <c r="C32" s="29"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J32" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="8" t="str">
+      <c r="K32" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L32" s="4"/>
@@ -3416,20 +3416,20 @@
       <c r="E33" s="12"/>
       <c r="F33" s="20"/>
       <c r="G33" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J33" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="8" t="str">
+      <c r="K33" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L33" s="4"/>
@@ -3447,12 +3447,12 @@
       <c r="E34" s="12"/>
       <c r="F34" s="20"/>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J34" s="8" t="str">
@@ -3478,12 +3478,12 @@
       <c r="E35" s="12"/>
       <c r="F35" s="20"/>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J35" s="8" t="str">
@@ -3509,12 +3509,12 @@
       <c r="E36" s="12"/>
       <c r="F36" s="20"/>
       <c r="G36" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J36" s="8" t="str">
@@ -3538,17 +3538,14 @@
       <c r="C37" s="29"/>
       <c r="D37" s="18"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="20">
-        <f>SUM(F2:F26)</f>
-        <v>255</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="3"/>
-        <v>63.75</v>
+      <c r="F37" s="20"/>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J37" s="8" t="str">
@@ -3574,12 +3571,12 @@
       <c r="E38" s="12"/>
       <c r="F38" s="20"/>
       <c r="G38" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J38" s="8" t="str">
@@ -3605,12 +3602,12 @@
       <c r="E39" s="12"/>
       <c r="F39" s="20"/>
       <c r="G39" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J39" s="8" t="str">
@@ -3636,12 +3633,12 @@
       <c r="E40" s="12"/>
       <c r="F40" s="20"/>
       <c r="G40" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J40" s="8" t="str">
@@ -3667,12 +3664,12 @@
       <c r="E41" s="12"/>
       <c r="F41" s="20"/>
       <c r="G41" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J41" s="8" t="str">
@@ -3698,12 +3695,12 @@
       <c r="E42" s="12"/>
       <c r="F42" s="20"/>
       <c r="G42" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="9" t="str">
-        <f t="shared" ref="I42:I52" si="8">IF(ISNUMBER($H42),$H42/8,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J42" s="8" t="str">
@@ -3729,12 +3726,12 @@
       <c r="E43" s="12"/>
       <c r="F43" s="20"/>
       <c r="G43" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J43" s="8" t="str">
@@ -3760,12 +3757,12 @@
       <c r="E44" s="12"/>
       <c r="F44" s="20"/>
       <c r="G44" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J44" s="8" t="str">
@@ -3791,12 +3788,12 @@
       <c r="E45" s="12"/>
       <c r="F45" s="20"/>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J45" s="8" t="str">
@@ -3819,12 +3816,12 @@
       <c r="E46" s="12"/>
       <c r="F46" s="20"/>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J46" s="8" t="str">
@@ -3847,12 +3844,12 @@
       <c r="E47" s="12"/>
       <c r="F47" s="20"/>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J47" s="8" t="str">
@@ -3875,12 +3872,12 @@
       <c r="E48" s="12"/>
       <c r="F48" s="20"/>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J48" s="8" t="str">
@@ -3903,12 +3900,12 @@
       <c r="E49" s="12"/>
       <c r="F49" s="20"/>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J49" s="8" t="str">
@@ -3931,12 +3928,12 @@
       <c r="E50" s="12"/>
       <c r="F50" s="20"/>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J50" s="8" t="str">
@@ -3944,7 +3941,7 @@
         <v/>
       </c>
       <c r="K50" s="9" t="str">
-        <f t="shared" ref="K50:K52" si="9">IF(ISNUMBER($J50),$J50/8,"")</f>
+        <f t="shared" ref="K50:K52" si="8">IF(ISNUMBER($J50),$J50/8,"")</f>
         <v/>
       </c>
       <c r="L50" s="4"/>
@@ -3962,12 +3959,12 @@
       <c r="E51" s="12"/>
       <c r="F51" s="20"/>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J51" s="8" t="str">
@@ -3975,7 +3972,7 @@
         <v/>
       </c>
       <c r="K51" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L51" s="4"/>
@@ -3991,12 +3988,12 @@
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="9" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J52" s="27" t="str">
@@ -4004,7 +4001,7 @@
         <v/>
       </c>
       <c r="K52" s="28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L52" s="4"/>
@@ -4026,11 +4023,11 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15">
         <f>SUM(F2:F52)</f>
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="G53" s="15">
         <f>SUM(G2:G52)</f>
-        <v>127.5</v>
+        <v>63.75</v>
       </c>
       <c r="H53" s="15">
         <f>SUM(H2:H51)</f>
@@ -4038,7 +4035,7 @@
       </c>
       <c r="I53" s="15">
         <f>SUM(I2:I51)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" s="15">
         <f>SUM(J2:J51)</f>

--- a/Wycena.xlsx
+++ b/Wycena.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>Obsługa wykrywania dźwięku przez potwory</t>
+  </si>
+  <si>
+    <t>Wytwarzanie dźwięków przez potwory</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2144,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>18</v>
@@ -2297,19 +2303,19 @@
         <v>0.75</v>
       </c>
       <c r="H3" s="21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I52" si="3">IF(ISNUMBER($H3),$H3/4,"")</f>
-        <v>0.25</v>
-      </c>
-      <c r="J3" s="8" t="str">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K3" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.625</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2331,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="29">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>18</v>
@@ -2348,11 +2354,11 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2621,7 +2627,9 @@
       <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="20">
         <v>12</v>
@@ -2703,7 +2711,9 @@
       <c r="C13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="20">
         <v>4</v>
@@ -2739,7 +2749,9 @@
       <c r="C14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="20">
         <v>4</v>
@@ -2768,7 +2780,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>21</v>
@@ -2812,7 +2824,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>21</v>
@@ -2892,7 +2904,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>21</v>
@@ -2928,7 +2940,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>21</v>
@@ -3221,17 +3233,25 @@
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="B27" s="29">
         <v>0</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="7" t="str">
+      <c r="F27" s="20">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="9" t="str">
@@ -3252,17 +3272,25 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="B28" s="29">
         <v>0</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="7" t="str">
+      <c r="F28" s="20">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="9" t="str">
@@ -4016,34 +4044,34 @@
       </c>
       <c r="B53" s="16">
         <f>AVERAGE(B2:B51)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.10039999999999998</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15">
         <f>SUM(F2:F52)</f>
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G53" s="15">
         <f>SUM(G2:G52)</f>
-        <v>63.75</v>
+        <v>66.75</v>
       </c>
       <c r="H53" s="15">
         <f>SUM(H2:H51)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="15">
         <f>SUM(I2:I51)</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="J53" s="15">
         <f>SUM(J2:J51)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K53" s="15">
         <f>SUM(K2:K51)</f>
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
